--- a/medicine/Enfance/Évelyne_Brisou-Pellen/Évelyne_Brisou-Pellen.xlsx
+++ b/medicine/Enfance/Évelyne_Brisou-Pellen/Évelyne_Brisou-Pellen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89velyne_Brisou-Pellen</t>
+          <t>Évelyne_Brisou-Pellen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Évelyne Brisou-Pellen est une romancière française, née le 21 septembre 1947 à Guer dans le Morbihan.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89velyne_Brisou-Pellen</t>
+          <t>Évelyne_Brisou-Pellen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née en 1947 en Bretagne, Évelyne Brisou-Pellen passe une partie de son enfance à Meknès au Maroc, puis revient en Bretagne. Elle suit des études de lettres et est ensuite brièvement enseignante. Sa carrière est interrompue par la naissance de ses enfants.
 En 1978, elle commence à écrire pour des revues de jeunesse. Son premier texte est publié dans Perlin et Pinpin de l'éditeur Fleurus mais c'est aux revues du groupe Bayard presse (Pomme d'Api, Les Belles Histoires de Pomme d'Api) qu'elle contribue le plus. En 1980, elle publie, chez Rageot, son premier roman intitulé Le Mystère de la nuit des pierres, suivi par La Cour aux étoiles deux ans plus tard.
-Avec une abondante œuvre romanesque, sa bibliographie compte plus de cent soixante titres pour six millions de ventes en librairie[1]. Dans ses romans, elle explore des époques et des territoires différents à chaque fois. Elle est l'auteur des séries historiques Garin Trousseboeuf, le jeune scribe vivant au XIVe siècle, de La Tribu de Celtill, qui se déroule à la période gallo-romaine et de la série romanesque et historique Les Messagers du temps.
+Avec une abondante œuvre romanesque, sa bibliographie compte plus de cent soixante titres pour six millions de ventes en librairie. Dans ses romans, elle explore des époques et des territoires différents à chaque fois. Elle est l'auteur des séries historiques Garin Trousseboeuf, le jeune scribe vivant au XIVe siècle, de La Tribu de Celtill, qui se déroule à la période gallo-romaine et de la série romanesque et historique Les Messagers du temps.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89velyne_Brisou-Pellen</t>
+          <t>Évelyne_Brisou-Pellen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +560,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Série Les Protégées de l'Empereur
-Meurtre au palais, Pocket jeunesse, 2007
+          <t>Série Les Protégées de l'Empereur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Meurtre au palais, Pocket jeunesse, 2007
 Le Destin d'Alaïs, Pocket jeunesse, 2007
 Droit dans le cœur, Pocket jeunesse, 2008
-Les Sortilèges du feu, Pocket jeunesse, 2008
-Série Les Messagers du temps
-Rendez-vous à Alésia, Gallimard, 2009
+Les Sortilèges du feu, Pocket jeunesse, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Évelyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89velyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Les Messagers du temps</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rendez-vous à Alésia, Gallimard, 2009
 Le Maître de Lugdunum, Gallimard, 2009
 L'Otage d'Attila, Gallimard, 2009
 Le Sceau de Clovis, Gallimard, 2010
@@ -561,13 +614,81 @@
 Hugues Capet et les chevaliers noirs
 Le Faucon du Roi Philippe, 2011
 Le Chevalier de Saint Louis, 2011
-Le Royaume d'Osiris, 2011
-Série Ysée
-Le Reliquaire d'argent, Bayard Jeunesse, 2010
+Le Royaume d'Osiris, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Évelyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89velyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Ysée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Reliquaire d'argent, Bayard Jeunesse, 2010
 Les Diamants bleus, Bayard Jeunesse, 2011
-Le Pas de la dame blanche, Bayard Jeunesse, 2012
-Série Garin Trousseboeuf
-L'Inconnu du donjon, 1997
+Le Pas de la dame blanche, Bayard Jeunesse, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Évelyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89velyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Garin Trousseboeuf</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'Inconnu du donjon, 1997
 L'Hiver des loups
 L'Anneau du Prince Noir
 Le Souffle de la salamandre
@@ -578,42 +699,254 @@
 Les Pèlerins maudits
 Les Sorciers de la ville close
 Le Cheval indomptable
-La Tour de Londres, Gallimard Jeunesse, 2013
-Le monde fantastique du Manoir
-Série Le Manoir
-Liam et la Carte d'éternité, Bayard Jeunesse, 2013, Prix Gulli-du-roman 2013[2] et Prix des Incorruptibles 2015[3] (niveau 5e/4e)
+La Tour de Londres, Gallimard Jeunesse, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Évelyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89velyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le monde fantastique du Manoir</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Le Manoir</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Liam et la Carte d'éternité, Bayard Jeunesse, 2013, Prix Gulli-du-roman 2013 et Prix des Incorruptibles 2015 (niveau 5e/4e)
 Cléa et la Porte des fantômes, Bayard Jeunesse, 2013
 Alisande et le Cercle de feu, Bayard, 2014
 Nic et le Pacte des démons, Bayard, 2014
 Lou et l'Île maudite, Bayard, 2015
-Alec et le Strigoï, Bayard, 2015
-Série Le Manoir - Saison 2 : L'Exil
-Le Collège de la délivrance, Bayard Jeunesse, 2016
+Alec et le Strigoï, Bayard, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Évelyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89velyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Le monde fantastique du Manoir</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Le Manoir - Saison 2 : L'Exil</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Collège de la délivrance, Bayard Jeunesse, 2016
 L'Antre des secrets, Bayard Jeunesse, 2016
 Le Paquebot de la dernière chance, Bayard Jeunesse, 2017
 Le Phare des brumes, Bayard Jeunesse, 2018
 La Forteresse de l'oubli, Bayard Jeunesse, 2018
 Le Château de la révélation, Bayard Jeunesse, 2019
 Liam et la Carte d’éternité BD 1/2, Bayard Jeunesse, 2022
-Liam et la Carte d'éternité BD 2/2, Bayard Jeunesse 2023
-Série Derrière toi
-La Malédiction des 33, Bayard Jeunesse, 2020, réédité en 2024 par Hachette poche
+Liam et la Carte d'éternité BD 2/2, Bayard Jeunesse 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Évelyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89velyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Derrière toi</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La Malédiction des 33, Bayard Jeunesse, 2020, réédité en 2024 par Hachette poche
 L'Appel des naufragés, Bayard Jeunesse, 2021, réédité en 2024 par Hachette poche
-Le Mystère de la chambre noire, Bayard Jeunesse, 2022
-Série L’enfance des dieux
- L’enfance des dieux – Zeus , Pocket 2021
+Le Mystère de la chambre noire, Bayard Jeunesse, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Évelyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89velyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série L’enfance des dieux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L’enfance des dieux – Zeus , Pocket 2021
 L’enfance des dieux – Athéna, Pocket 2021
 L’enfance des dieux - Apollon &amp; Artémis, Pocket 2021
 L’enfance des dieux – Hermès, Pocket 2021
 L’enfance des héros – Persée, Pocket 2022
 L’enfance des héros – Héraclès, Pocket 2022
 L’enfance des dieux – Dionysos, Pocket 2023
-L’enfance des héros – Achille, Pocket 2023
-Série John Keskessé
- John Keskessé I – Le secret des souterrains, Bayard Jeunesse, 2021
+L’enfance des héros – Achille, Pocket 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Évelyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89velyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Série John Keskessé</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> John Keskessé I – Le secret des souterrains, Bayard Jeunesse, 2021
  John Keskessé II - La tête à l'Envers, Bayard. 2022
-John Keskessé III – La quête du dragon, Bayard. 2023
-Romans indépendants
+John Keskessé III – La quête du dragon, Bayard. 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Évelyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89velyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Monsieur Jour et Madame Nuit, Fleurus (Perlin et Pinpin), 1979
 Les Korrigans, Contes et Légendes Autour du Monde, 1979
 La Porte de nulle-part, Bayard-Presse. Belles Histoires, 1980
@@ -744,40 +1077,77 @@
 C'est ta faute, Coop Breizh, 2023
 Ugo et les chevaliers de Bouvines, Scrineo, 2023
 Agatha, Charlie et moi, Albin Michel, 2024
-Autre
-Durant la crise du Covid-19 en 2020, elle a participé à un collectif d’auteurs et d’autrices (Cassandra O'Donnell, Carina Rozenfeld, Jean-Luc Marcastel, Silène Edgar, Thomas Andrew, Sebastian Bernadotte, Anne-Marie Desplat-Duc, Laurence Colin, Katia Lanero Zamora, Camille Salomon, Anna Combelle, Stéphane Tamaillon, Solène Chartier, Carole Jamin) qui ont mis des histoires en libre de droit sur le site Kilitoo, proposant ainsi aux enfants de deux à quinze ans un vaste choix de lectures basées sur le fantastique, la fantasy et l’imaginaire.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89velyne_Brisou-Pellen</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89velyne_Brisou-Pellen</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Évelyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89velyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Autre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la crise du Covid-19 en 2020, elle a participé à un collectif d’auteurs et d’autrices (Cassandra O'Donnell, Carina Rozenfeld, Jean-Luc Marcastel, Silène Edgar, Thomas Andrew, Sebastian Bernadotte, Anne-Marie Desplat-Duc, Laurence Colin, Katia Lanero Zamora, Camille Salomon, Anna Combelle, Stéphane Tamaillon, Solène Chartier, Carole Jamin) qui ont mis des histoires en libre de droit sur le site Kilitoo, proposant ainsi aux enfants de deux à quinze ans un vaste choix de lectures basées sur le fantastique, la fantasy et l’imaginaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Évelyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89velyne_Brisou-Pellen</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Évelyne Brisou-Pellen a reçu de nombreux prix, dont le grand prix du livre pour la jeunesse en 1984 pour Prisonnière des Mongols.
-En 2015, elle obtient le prix des Incorruptibles (niveau des classes de cinquième et quatrième) pour Le manoir, tome 1 : Liam et la Carte d'Éternité[3], qui avait déjà été lauréat du prix Gulli du roman en 2013[2].
+En 2015, elle obtient le prix des Incorruptibles (niveau des classes de cinquième et quatrième) pour Le manoir, tome 1 : Liam et la Carte d'Éternité, qui avait déjà été lauréat du prix Gulli du roman en 2013.
 </t>
         </is>
       </c>
